--- a/data/trans_orig/P5702-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5702-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>429901</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>396013</v>
+        <v>401680</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>462841</v>
+        <v>462907</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4166824581358175</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3838363511084572</v>
+        <v>0.3893295608926629</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4486101310634966</v>
+        <v>0.4486735531431032</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>471</v>
@@ -765,19 +765,19 @@
         <v>473084</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>436179</v>
+        <v>437730</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>507712</v>
+        <v>505626</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3597289139048758</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3316662426244342</v>
+        <v>0.3328459996749652</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3860592273160406</v>
+        <v>0.384473749552772</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>906</v>
@@ -786,19 +786,19 @@
         <v>902985</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>858250</v>
+        <v>856548</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>946748</v>
+        <v>949524</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3847670016198276</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3657052218116523</v>
+        <v>0.3649799880771908</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4034148670385234</v>
+        <v>0.4045974894975436</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>294791</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>266804</v>
+        <v>268860</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>325793</v>
+        <v>324095</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2857268652330618</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2586003775172349</v>
+        <v>0.2605932674401629</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3157758660270497</v>
+        <v>0.3141299419678232</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>343</v>
@@ -836,19 +836,19 @@
         <v>348704</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>317854</v>
+        <v>321041</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>385935</v>
+        <v>380846</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2651516895612807</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2416931679695142</v>
+        <v>0.2441164875959115</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2934613492775672</v>
+        <v>0.28959194643877</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>641</v>
@@ -857,19 +857,19 @@
         <v>643495</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>602260</v>
+        <v>600284</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>684438</v>
+        <v>686069</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2741970099215317</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2566263586540424</v>
+        <v>0.2557846780250476</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2916429290675735</v>
+        <v>0.2923380885028372</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>197720</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>172716</v>
+        <v>174215</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>223309</v>
+        <v>221683</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1916409901483417</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1674053244964723</v>
+        <v>0.1688581408064019</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.216443159223516</v>
+        <v>0.2148670018021466</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>253</v>
@@ -907,19 +907,19 @@
         <v>259221</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>228574</v>
+        <v>230976</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>287565</v>
+        <v>287507</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1971093881220539</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1738052935364034</v>
+        <v>0.1756321468610194</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2186621851218273</v>
+        <v>0.2186173541573602</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>454</v>
@@ -928,19 +928,19 @@
         <v>456941</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>421906</v>
+        <v>422007</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>496999</v>
+        <v>499941</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1947053546246673</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.179776602501613</v>
+        <v>0.1798197495917727</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2117740991265226</v>
+        <v>0.2130276341117789</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>91822</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>74264</v>
+        <v>75840</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>110370</v>
+        <v>113374</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08899900698873393</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0719801991229759</v>
+        <v>0.07350830790485081</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1069766760176129</v>
+        <v>0.1098883208694607</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>188</v>
@@ -978,19 +978,19 @@
         <v>196528</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>172247</v>
+        <v>171687</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>221872</v>
+        <v>221196</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1494382435315511</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1309747739075382</v>
+        <v>0.1305492805225092</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.168709197978095</v>
+        <v>0.1681955098643052</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>277</v>
@@ -999,19 +999,19 @@
         <v>288350</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>257522</v>
+        <v>257354</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>324099</v>
+        <v>322781</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1228677653213181</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1097315938706881</v>
+        <v>0.1096599029448204</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1381002911144709</v>
+        <v>0.1375386923326561</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>17488</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9766</v>
+        <v>10102</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>28878</v>
+        <v>29774</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0169506794940451</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009465944904158103</v>
+        <v>0.009791278887994062</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02799027780680395</v>
+        <v>0.0288588182464358</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>36</v>
@@ -1049,19 +1049,19 @@
         <v>37575</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>26738</v>
+        <v>26886</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>51993</v>
+        <v>50658</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02857176488023862</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02033116603167641</v>
+        <v>0.02044411171685484</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0395349069508343</v>
+        <v>0.03852007891266895</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>51</v>
@@ -1070,19 +1070,19 @@
         <v>55063</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>41397</v>
+        <v>40181</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>70771</v>
+        <v>71947</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02346286851265522</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01763937995085253</v>
+        <v>0.01712128135833173</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03015589683640401</v>
+        <v>0.03065721664736272</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>897133</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>858398</v>
+        <v>857229</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>940384</v>
+        <v>941606</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5297777690706923</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5069038496948365</v>
+        <v>0.5062139464885496</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5553190236895924</v>
+        <v>0.5560401916683688</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>739</v>
@@ -1195,19 +1195,19 @@
         <v>744173</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>710396</v>
+        <v>703027</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>786585</v>
+        <v>783698</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4687193441196045</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4474446615019432</v>
+        <v>0.4428035330530997</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4954324173434574</v>
+        <v>0.493613944080209</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1604</v>
@@ -1216,19 +1216,19 @@
         <v>1641306</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1580613</v>
+        <v>1579041</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1692539</v>
+        <v>1700713</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5002324211435013</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4817346646311373</v>
+        <v>0.481255663894491</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.515847280166814</v>
+        <v>0.5183384544215893</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>473814</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>435656</v>
+        <v>437399</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>509150</v>
+        <v>513719</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2797983218668774</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2572651091913215</v>
+        <v>0.2582946353775328</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3006648386040847</v>
+        <v>0.3033630559705304</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>408</v>
@@ -1266,19 +1266,19 @@
         <v>412818</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>375305</v>
+        <v>378581</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>445166</v>
+        <v>449669</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2600142413911676</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2363867175224504</v>
+        <v>0.2384501303719083</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2803891096164628</v>
+        <v>0.2832254022602734</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>881</v>
@@ -1287,19 +1287,19 @@
         <v>886632</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>840487</v>
+        <v>837844</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>942216</v>
+        <v>935506</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2702250722859614</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2561611331013749</v>
+        <v>0.2553555997642398</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2871659840856673</v>
+        <v>0.2851208629703983</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>229147</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>202941</v>
+        <v>203722</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>256602</v>
+        <v>259191</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1353163898193515</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1198411207416355</v>
+        <v>0.1203027894501859</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1515292957393662</v>
+        <v>0.1530580939501856</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>235</v>
@@ -1337,19 +1337,19 @@
         <v>243844</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>216604</v>
+        <v>216633</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>270122</v>
+        <v>273603</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1535856268911644</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1364288702271076</v>
+        <v>0.1364467682766615</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1701373013268267</v>
+        <v>0.1723293864419937</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>458</v>
@@ -1358,19 +1358,19 @@
         <v>472990</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>437272</v>
+        <v>434745</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>511660</v>
+        <v>516473</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.144156627118028</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.133270507622791</v>
+        <v>0.1325004843188941</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1559423920985876</v>
+        <v>0.1574090951063181</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>63579</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>49540</v>
+        <v>49830</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>82465</v>
+        <v>82507</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03754503719115541</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02925478852289213</v>
+        <v>0.02942555014220593</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04869773535497798</v>
+        <v>0.04872240697635012</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>140</v>
@@ -1408,19 +1408,19 @@
         <v>153140</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>131227</v>
+        <v>128565</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>179915</v>
+        <v>178164</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09645555338972797</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08265396971398728</v>
+        <v>0.08097714598567626</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1133201666282533</v>
+        <v>0.1122168792977782</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>201</v>
@@ -1429,19 +1429,19 @@
         <v>216719</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>190071</v>
+        <v>190271</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>245315</v>
+        <v>249167</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06605104105633104</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05792916993618456</v>
+        <v>0.05799028282814676</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07476629405782512</v>
+        <v>0.07594037520404398</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>29741</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>20077</v>
+        <v>18409</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>42228</v>
+        <v>40868</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01756248205192345</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0118559605082589</v>
+        <v>0.01087105056254185</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02493647886810083</v>
+        <v>0.02413325613540201</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>32</v>
@@ -1479,19 +1479,19 @@
         <v>33699</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>22677</v>
+        <v>22257</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>46285</v>
+        <v>45573</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02122523420833547</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01428324740209821</v>
+        <v>0.01401850328583569</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02915288886357532</v>
+        <v>0.02870436802005042</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>59</v>
@@ -1500,19 +1500,19 @@
         <v>63439</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>48135</v>
+        <v>47195</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>81209</v>
+        <v>81057</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01933483839617818</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01467055704995045</v>
+        <v>0.01438402691376265</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02475051071907229</v>
+        <v>0.02470421864757209</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>288535</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>264461</v>
+        <v>265100</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>313824</v>
+        <v>313130</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5232695403603027</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4796101250771248</v>
+        <v>0.4807687241344183</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5691323411809457</v>
+        <v>0.5678738560628253</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>258</v>
@@ -1625,19 +1625,19 @@
         <v>269472</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>248654</v>
+        <v>247460</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>292696</v>
+        <v>292961</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5656273558651717</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5219310971548352</v>
+        <v>0.5194249918627186</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6143758367431585</v>
+        <v>0.6149328311217264</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>536</v>
@@ -1646,19 +1646,19 @@
         <v>558007</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>526541</v>
+        <v>527059</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>590715</v>
+        <v>593128</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5429030993558861</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5122894694314569</v>
+        <v>0.5127932883130571</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5747262996034279</v>
+        <v>0.57707334882206</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>163788</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>140914</v>
+        <v>142129</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>187052</v>
+        <v>186489</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2970367350561596</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2555529276055563</v>
+        <v>0.2577556611276741</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3392268837346712</v>
+        <v>0.3382048051878211</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>109</v>
@@ -1696,19 +1696,19 @@
         <v>114790</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>95243</v>
+        <v>94647</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>136412</v>
+        <v>133512</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2409460373409944</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1999163177277059</v>
+        <v>0.1986656781873096</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2863326657760177</v>
+        <v>0.2802450354260799</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>263</v>
@@ -1717,19 +1717,19 @@
         <v>278578</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>252750</v>
+        <v>247773</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>310219</v>
+        <v>309650</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2710377544768249</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2459083303557473</v>
+        <v>0.2410662293508782</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3018221598648503</v>
+        <v>0.3012689052543839</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>73796</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>59000</v>
+        <v>58759</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>90893</v>
+        <v>92090</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.133832309384756</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1069979907658444</v>
+        <v>0.1065613053260725</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1648379543058329</v>
+        <v>0.16700813382001</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>53</v>
@@ -1767,19 +1767,19 @@
         <v>55916</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>43476</v>
+        <v>42526</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>71621</v>
+        <v>70222</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1173690784774473</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09125646099439218</v>
+        <v>0.08926387762521819</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1503351579816358</v>
+        <v>0.1473983151467888</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>123</v>
@@ -1788,19 +1788,19 @@
         <v>129712</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>107974</v>
+        <v>109536</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>151854</v>
+        <v>152877</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1262013253166706</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1050511132206764</v>
+        <v>0.1065707774856396</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1477435342364375</v>
+        <v>0.1487387415088481</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>15742</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9030</v>
+        <v>8625</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25981</v>
+        <v>25379</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02854946252478894</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01637558093398095</v>
+        <v>0.01564208021724967</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04711778774111108</v>
+        <v>0.04602532677679638</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>26</v>
@@ -1838,19 +1838,19 @@
         <v>28190</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19182</v>
+        <v>18623</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>41157</v>
+        <v>41425</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05917114615824036</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04026262333461326</v>
+        <v>0.03909088876627909</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08639039901325139</v>
+        <v>0.08695295643021167</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>43</v>
@@ -1859,19 +1859,19 @@
         <v>43932</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>32192</v>
+        <v>32871</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>59081</v>
+        <v>60141</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04274312725927811</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03132045549724071</v>
+        <v>0.03198102349060478</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05748140162958346</v>
+        <v>0.05851344580939909</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>9546</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4504</v>
+        <v>4443</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18083</v>
+        <v>19064</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0173119526739927</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.008167460015499723</v>
+        <v>0.008056812655146184</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03279350776265619</v>
+        <v>0.03457421019638802</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1909,19 +1909,19 @@
         <v>8045</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3170</v>
+        <v>3144</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16714</v>
+        <v>16889</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01688638215814628</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.006654055760933222</v>
+        <v>0.006598810758430163</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03508361052812498</v>
+        <v>0.03545002339776651</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>14</v>
@@ -1930,19 +1930,19 @@
         <v>17591</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8791</v>
+        <v>10256</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>27850</v>
+        <v>28008</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01711469359134026</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00855332672471361</v>
+        <v>0.009978651631757032</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02709656540068872</v>
+        <v>0.02725013139790812</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>1615568</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1558160</v>
+        <v>1557400</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1674219</v>
+        <v>1668763</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4930708826853806</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4755499471458251</v>
+        <v>0.4753181587187689</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5109710327635545</v>
+        <v>0.5093060928883936</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1468</v>
@@ -2055,19 +2055,19 @@
         <v>1486728</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1427804</v>
+        <v>1425164</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1540442</v>
+        <v>1545272</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4399650045282976</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4225276427497933</v>
+        <v>0.4217464835525069</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4558603242776064</v>
+        <v>0.457289660201635</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3046</v>
@@ -2076,19 +2076,19 @@
         <v>3102297</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3014670</v>
+        <v>3018769</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3195615</v>
+        <v>3191155</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4661084076558452</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4529427605347763</v>
+        <v>0.4535586986844028</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4801290359315884</v>
+        <v>0.4794590462883045</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>932393</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>883959</v>
+        <v>880635</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>982407</v>
+        <v>978953</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2845661548126278</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2697841624831011</v>
+        <v>0.2687695122385047</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2998303375980976</v>
+        <v>0.298776045440544</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>860</v>
@@ -2126,19 +2126,19 @@
         <v>876311</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>823730</v>
+        <v>826206</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>929238</v>
+        <v>925647</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2593253229974227</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2437650041903534</v>
+        <v>0.2444976252674645</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2749877304438008</v>
+        <v>0.2739252479528113</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1785</v>
@@ -2147,19 +2147,19 @@
         <v>1808705</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1735034</v>
+        <v>1730444</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1893921</v>
+        <v>1885511</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2717510894910613</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2606822656688421</v>
+        <v>0.2599926422179222</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2845545403331767</v>
+        <v>0.2832908713104677</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>500663</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>461762</v>
+        <v>455607</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>543475</v>
+        <v>540182</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1528022085199497</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1409297781699131</v>
+        <v>0.1390511701130947</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1658683572571739</v>
+        <v>0.1648635358982229</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>541</v>
@@ -2197,19 +2197,19 @@
         <v>558981</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>515103</v>
+        <v>515603</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>602866</v>
+        <v>606077</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1654182188845713</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1524336452558372</v>
+        <v>0.1525814344275742</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1784049759077308</v>
+        <v>0.1793552177185513</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1035</v>
@@ -2218,19 +2218,19 @@
         <v>1059644</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1000316</v>
+        <v>1003457</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1123584</v>
+        <v>1120747</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1592075044350706</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1502936535972388</v>
+        <v>0.1507656636057101</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1688143199601624</v>
+        <v>0.1683880828930345</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>171144</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>144437</v>
+        <v>145056</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>197469</v>
+        <v>200269</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05223307869959336</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04408206462905057</v>
+        <v>0.04427097567597184</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06026756372798549</v>
+        <v>0.06112196697171739</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>354</v>
@@ -2268,19 +2268,19 @@
         <v>377858</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>342170</v>
+        <v>340799</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>414809</v>
+        <v>416125</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1118188112071411</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1012578338695823</v>
+        <v>0.1008520911191311</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1227538164334878</v>
+        <v>0.1231430162486739</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>521</v>
@@ -2289,19 +2289,19 @@
         <v>549002</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>506341</v>
+        <v>504787</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>601089</v>
+        <v>595734</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08248545151789419</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07607579021672557</v>
+        <v>0.07584238872550132</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09031135925395684</v>
+        <v>0.08950671475552927</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>56775</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>42772</v>
+        <v>42691</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>72803</v>
+        <v>75166</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0173276752824485</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01305415302884752</v>
+        <v>0.01302924065646372</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02221953064332133</v>
+        <v>0.02294051901289097</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>74</v>
@@ -2339,19 +2339,19 @@
         <v>79319</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>61676</v>
+        <v>61906</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>100171</v>
+        <v>97826</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02347264238256729</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01825164751591152</v>
+        <v>0.01831978835295114</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02964350827414498</v>
+        <v>0.02894957645030331</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>124</v>
@@ -2360,19 +2360,19 @@
         <v>136094</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>110486</v>
+        <v>114246</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>161218</v>
+        <v>161330</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02044754690012877</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01660009527975436</v>
+        <v>0.01716500305668487</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02422238265604537</v>
+        <v>0.02423918796018789</v>
       </c>
     </row>
     <row r="27">
@@ -2703,19 +2703,19 @@
         <v>457073</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>424751</v>
+        <v>424816</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>487148</v>
+        <v>491158</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4713052332494826</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4379764294358476</v>
+        <v>0.4380439392335549</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5023162974361917</v>
+        <v>0.5064513594448077</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>504</v>
@@ -2724,19 +2724,19 @@
         <v>538119</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>503795</v>
+        <v>505200</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>574296</v>
+        <v>580048</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4025556909196799</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3768788044885698</v>
+        <v>0.3779298633407139</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4296185977569996</v>
+        <v>0.4339214356529392</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>935</v>
@@ -2745,19 +2745,19 @@
         <v>995192</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>944830</v>
+        <v>951416</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1042722</v>
+        <v>1046102</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4314617277197632</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4096273648910405</v>
+        <v>0.4124825791102794</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4520681153675544</v>
+        <v>0.453533486941032</v>
       </c>
     </row>
     <row r="5">
@@ -2774,19 +2774,19 @@
         <v>274714</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>245957</v>
+        <v>244398</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>304486</v>
+        <v>304872</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2832679288479554</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2536149821341377</v>
+        <v>0.2520083291973732</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3139666430868992</v>
+        <v>0.3143652429058424</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>371</v>
@@ -2795,19 +2795,19 @@
         <v>402335</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>369990</v>
+        <v>370250</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>436097</v>
+        <v>439083</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3009783879062717</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2767819808513854</v>
+        <v>0.2769759872461149</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3262347547793069</v>
+        <v>0.3284687108677607</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>625</v>
@@ -2816,19 +2816,19 @@
         <v>677049</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>635286</v>
+        <v>634473</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>721992</v>
+        <v>725845</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2935319502437458</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2754257998399146</v>
+        <v>0.2750731520072884</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3130166083404226</v>
+        <v>0.3146871679334508</v>
       </c>
     </row>
     <row r="6">
@@ -2845,19 +2845,19 @@
         <v>152386</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>130276</v>
+        <v>131081</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>178686</v>
+        <v>177697</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1571304368740526</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1343329517586365</v>
+        <v>0.1351622273401571</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1842497768954101</v>
+        <v>0.1832300310034757</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>190</v>
@@ -2866,19 +2866,19 @@
         <v>205018</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>179077</v>
+        <v>178850</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>232864</v>
+        <v>234495</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1533693742285302</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1339634224782918</v>
+        <v>0.1337939668318575</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1742007669787498</v>
+        <v>0.1754209892410695</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>328</v>
@@ -2887,19 +2887,19 @@
         <v>357403</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>320197</v>
+        <v>321856</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>392066</v>
+        <v>395863</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1549507289772986</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1388200700653677</v>
+        <v>0.1395396017944721</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1699785587504602</v>
+        <v>0.1716247558566528</v>
       </c>
     </row>
     <row r="7">
@@ -2916,19 +2916,19 @@
         <v>69329</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>55172</v>
+        <v>54114</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>87183</v>
+        <v>85699</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07148803321640525</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05688948644110977</v>
+        <v>0.05579908891499473</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08989775977826756</v>
+        <v>0.0883676456456447</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>117</v>
@@ -2937,19 +2937,19 @@
         <v>124703</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>104705</v>
+        <v>104770</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>147112</v>
+        <v>148416</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09328788621777501</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07832744652645104</v>
+        <v>0.07837644029639056</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1100511249259043</v>
+        <v>0.1110266771450023</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>182</v>
@@ -2958,19 +2958,19 @@
         <v>194033</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>168830</v>
+        <v>167791</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>221112</v>
+        <v>222516</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08412204551921323</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07319544105161296</v>
+        <v>0.07274532750434948</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09586233410269478</v>
+        <v>0.09647073663796631</v>
       </c>
     </row>
     <row r="8">
@@ -2987,19 +2987,19 @@
         <v>16301</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9013</v>
+        <v>9415</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>26079</v>
+        <v>26956</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01680836781210404</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009294058444119279</v>
+        <v>0.009707832243231639</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02689083068398842</v>
+        <v>0.02779547192569888</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>64</v>
@@ -3008,19 +3008,19 @@
         <v>66582</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>52516</v>
+        <v>51397</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>85509</v>
+        <v>84582</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04980866072774322</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03928604229262066</v>
+        <v>0.03844926709263712</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06396759361052001</v>
+        <v>0.0632738766597722</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>79</v>
@@ -3029,19 +3029,19 @@
         <v>82883</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>66045</v>
+        <v>66898</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>103287</v>
+        <v>100701</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03593354753997909</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02863370409744026</v>
+        <v>0.02900329592171439</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04477959140300281</v>
+        <v>0.04365833822050038</v>
       </c>
     </row>
     <row r="9">
@@ -3133,19 +3133,19 @@
         <v>1045983</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1000586</v>
+        <v>1000130</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1087939</v>
+        <v>1095445</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.533201972063667</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5100605135263135</v>
+        <v>0.5098279603530426</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.554589771408739</v>
+        <v>0.558416078992343</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>728</v>
@@ -3154,19 +3154,19 @@
         <v>775279</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>731754</v>
+        <v>730151</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>818085</v>
+        <v>819247</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4413258991939392</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4165497630868666</v>
+        <v>0.4156372114334441</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4656934202473916</v>
+        <v>0.4663549702561512</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1728</v>
@@ -3175,19 +3175,19 @@
         <v>1821261</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1752874</v>
+        <v>1757352</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1880013</v>
+        <v>1882171</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4897965331738294</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4714048287630146</v>
+        <v>0.47260932933778</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5055967985668007</v>
+        <v>0.5061770222020732</v>
       </c>
     </row>
     <row r="11">
@@ -3204,19 +3204,19 @@
         <v>512224</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>475749</v>
+        <v>472423</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>558036</v>
+        <v>551939</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2611119261778823</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2425185966861758</v>
+        <v>0.2408230267118862</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2844652419842103</v>
+        <v>0.2813571255453233</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>447</v>
@@ -3225,19 +3225,19 @@
         <v>474429</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>435503</v>
+        <v>437435</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>513222</v>
+        <v>514565</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.270067819168085</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2479094670872545</v>
+        <v>0.2490092758925467</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2921508844655897</v>
+        <v>0.2929154207926771</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>924</v>
@@ -3246,19 +3246,19 @@
         <v>986652</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>932065</v>
+        <v>926491</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1042147</v>
+        <v>1040306</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2653430002078026</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2506625270224235</v>
+        <v>0.249163658922721</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2802671965013506</v>
+        <v>0.2797722315874875</v>
       </c>
     </row>
     <row r="12">
@@ -3275,19 +3275,19 @@
         <v>244582</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>215767</v>
+        <v>215832</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>278059</v>
+        <v>275686</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1246785466986814</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1099897814309098</v>
+        <v>0.1100228822560877</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.141744003576904</v>
+        <v>0.1405340068019294</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>225</v>
@@ -3296,19 +3296,19 @@
         <v>248929</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>218143</v>
+        <v>218175</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>278417</v>
+        <v>279930</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1417026005206818</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1241773907384737</v>
+        <v>0.1241957099353439</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.158488455283602</v>
+        <v>0.1593494368972672</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>456</v>
@@ -3317,19 +3317,19 @@
         <v>493511</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>453517</v>
+        <v>453269</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>541782</v>
+        <v>540618</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1327212993408833</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1219655562710368</v>
+        <v>0.1218988816357851</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1457027725026274</v>
+        <v>0.1453896940506079</v>
       </c>
     </row>
     <row r="13">
@@ -3346,19 +3346,19 @@
         <v>108198</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>88715</v>
+        <v>89547</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>132129</v>
+        <v>129184</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05515499793430822</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04522371363206291</v>
+        <v>0.04564787665693396</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06735427522580581</v>
+        <v>0.06585280335753609</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>147</v>
@@ -3367,19 +3367,19 @@
         <v>160925</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>137730</v>
+        <v>134823</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>189711</v>
+        <v>188594</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09160648706905658</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07840283412956064</v>
+        <v>0.07674765543523464</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1079927256231254</v>
+        <v>0.1073565261839378</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>249</v>
@@ -3388,19 +3388,19 @@
         <v>269123</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>237517</v>
+        <v>236726</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>302462</v>
+        <v>300773</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07237594387444768</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06387599521085606</v>
+        <v>0.06366340870212592</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08134202167278136</v>
+        <v>0.08088754891702393</v>
       </c>
     </row>
     <row r="14">
@@ -3417,19 +3417,19 @@
         <v>50715</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>36095</v>
+        <v>37735</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>68641</v>
+        <v>68195</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02585255712546107</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01840008565349761</v>
+        <v>0.01923580398824815</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03499047446269744</v>
+        <v>0.03476317904307263</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>87</v>
@@ -3438,19 +3438,19 @@
         <v>97141</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>80510</v>
+        <v>78536</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>120263</v>
+        <v>117715</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05529719404823747</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04583011616065132</v>
+        <v>0.04470669466742311</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06845929035478499</v>
+        <v>0.06700903675353002</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>131</v>
@@ -3459,19 +3459,19 @@
         <v>147856</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>123694</v>
+        <v>123480</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>174716</v>
+        <v>175938</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03976322340303692</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03326537099547146</v>
+        <v>0.03320777434674566</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04698675748456092</v>
+        <v>0.04731552595257055</v>
       </c>
     </row>
     <row r="15">
@@ -3563,19 +3563,19 @@
         <v>280138</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>257117</v>
+        <v>256163</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>302160</v>
+        <v>301282</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5847359108972863</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5366833081489784</v>
+        <v>0.5346917848455995</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6307031410139825</v>
+        <v>0.6288700129809107</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>226</v>
@@ -3584,19 +3584,19 @@
         <v>249671</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>227942</v>
+        <v>227244</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>273331</v>
+        <v>272717</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5443829664164322</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4970061939067788</v>
+        <v>0.4954842209029597</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5959718598235721</v>
+        <v>0.5946328766462389</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>483</v>
@@ -3605,19 +3605,19 @@
         <v>529809</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>493218</v>
+        <v>494930</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>561285</v>
+        <v>561035</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5649995339888305</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5259774884444463</v>
+        <v>0.5278042445517651</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5985663724480228</v>
+        <v>0.5982996186166899</v>
       </c>
     </row>
     <row r="17">
@@ -3634,19 +3634,19 @@
         <v>110124</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>91786</v>
+        <v>92023</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>131260</v>
+        <v>131629</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2298624427299121</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1915861030221749</v>
+        <v>0.1920810431011712</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2739796964398161</v>
+        <v>0.2747500043319141</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>108</v>
@@ -3655,19 +3655,19 @@
         <v>125228</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>107388</v>
+        <v>104350</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>148291</v>
+        <v>147042</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2730472058500581</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2341492897761333</v>
+        <v>0.2275250053821923</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3233341206246851</v>
+        <v>0.3206112075660952</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>209</v>
@@ -3676,19 +3676,19 @@
         <v>235352</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>205681</v>
+        <v>208902</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>264295</v>
+        <v>266284</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2509838447144928</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2193423790948902</v>
+        <v>0.2227773233472567</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2818501246720047</v>
+        <v>0.283970930377621</v>
       </c>
     </row>
     <row r="18">
@@ -3705,19 +3705,19 @@
         <v>53979</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>40511</v>
+        <v>40462</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>70332</v>
+        <v>71286</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1126716154954769</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08455948367213517</v>
+        <v>0.08445602585699725</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1468042074122771</v>
+        <v>0.1487968677946288</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>41</v>
@@ -3726,19 +3726,19 @@
         <v>44910</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>32536</v>
+        <v>33544</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>61125</v>
+        <v>60949</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09792248386987731</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07094064171202141</v>
+        <v>0.0731403026809555</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1332769348438133</v>
+        <v>0.1328926942381319</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>89</v>
@@ -3747,19 +3747,19 @@
         <v>98890</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>82126</v>
+        <v>82038</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>121620</v>
+        <v>122048</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1054579059488694</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08758091024072008</v>
+        <v>0.08748683247316735</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1296979768950471</v>
+        <v>0.1301549274840491</v>
       </c>
     </row>
     <row r="19">
@@ -3776,19 +3776,19 @@
         <v>23199</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14496</v>
+        <v>15165</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35116</v>
+        <v>36487</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0484231852366136</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0302567253324301</v>
+        <v>0.03165499969578331</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07329866804928527</v>
+        <v>0.07615979962939874</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>26</v>
@@ -3797,19 +3797,19 @@
         <v>27834</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19212</v>
+        <v>18414</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>40405</v>
+        <v>39393</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06069002330482416</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04188988904141181</v>
+        <v>0.04014909461993033</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08809937615066307</v>
+        <v>0.08589206756501226</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>47</v>
@@ -3818,19 +3818,19 @@
         <v>51033</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>38431</v>
+        <v>38527</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>66439</v>
+        <v>68908</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05442282027449953</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04098383658824344</v>
+        <v>0.04108630698563165</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07085157793591616</v>
+        <v>0.07348450595000797</v>
       </c>
     </row>
     <row r="20">
@@ -3847,19 +3847,19 @@
         <v>11645</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5459</v>
+        <v>5436</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22369</v>
+        <v>23150</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02430684564071118</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01139382371928102</v>
+        <v>0.01134754209362193</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04669168046852896</v>
+        <v>0.04832041091403991</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>11</v>
@@ -3868,19 +3868,19 @@
         <v>10988</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5334</v>
+        <v>5932</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19063</v>
+        <v>18906</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02395732055880814</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01163131995825414</v>
+        <v>0.01293351808950476</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04156558061580421</v>
+        <v>0.04122292338600286</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>20</v>
@@ -3889,19 +3889,19 @@
         <v>22633</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>14404</v>
+        <v>13616</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>35603</v>
+        <v>34752</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02413589507330785</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01536044838023998</v>
+        <v>0.01452053497699771</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03796784506927927</v>
+        <v>0.03706060422562527</v>
       </c>
     </row>
     <row r="21">
@@ -3993,19 +3993,19 @@
         <v>1783194</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1723424</v>
+        <v>1726280</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1847830</v>
+        <v>1841148</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5228405626394769</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.505315611905884</v>
+        <v>0.5061531649823626</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5417920540532554</v>
+        <v>0.5398328353665712</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1458</v>
@@ -4014,19 +4014,19 @@
         <v>1563069</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1502961</v>
+        <v>1500368</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1628979</v>
+        <v>1624530</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4400418174936368</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4231199621354876</v>
+        <v>0.4223902162703297</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4585971938067285</v>
+        <v>0.4573448127693681</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3146</v>
@@ -4035,19 +4035,19 @@
         <v>3346263</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3259669</v>
+        <v>3262630</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3438071</v>
+        <v>3433903</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4805998338123572</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4681629603815223</v>
+        <v>0.4685883084463341</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4937855816548448</v>
+        <v>0.4931868936639028</v>
       </c>
     </row>
     <row r="23">
@@ -4064,19 +4064,19 @@
         <v>897061</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>839839</v>
+        <v>844135</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>951839</v>
+        <v>949886</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2630223887917244</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2462444586553561</v>
+        <v>0.2475042619186063</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2790833634512098</v>
+        <v>0.278510833308847</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>926</v>
@@ -4085,19 +4085,19 @@
         <v>1001992</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>945994</v>
+        <v>941650</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1057310</v>
+        <v>1052711</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2820850669543565</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2663204501625174</v>
+        <v>0.2650972384446456</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2976585124486136</v>
+        <v>0.2963638282568385</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1758</v>
@@ -4106,19 +4106,19 @@
         <v>1899053</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1824373</v>
+        <v>1826151</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1979503</v>
+        <v>1975917</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2727474325417003</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2620217312104003</v>
+        <v>0.262276971417931</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2843019232286456</v>
+        <v>0.2837868040018267</v>
       </c>
     </row>
     <row r="24">
@@ -4135,19 +4135,19 @@
         <v>450947</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>411173</v>
+        <v>409514</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>498123</v>
+        <v>493545</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.132219648369265</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1205579104582089</v>
+        <v>0.1200713371923389</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1460518302827099</v>
+        <v>0.1447096976144349</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>456</v>
@@ -4156,19 +4156,19 @@
         <v>498857</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>456625</v>
+        <v>455381</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>540975</v>
+        <v>543170</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1404404482014519</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1285510300544998</v>
+        <v>0.1282008140119407</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1522976646876529</v>
+        <v>0.152915448530921</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>873</v>
@@ -4177,19 +4177,19 @@
         <v>949804</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>893546</v>
+        <v>889499</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1011570</v>
+        <v>1012778</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1364135836256725</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1283336257432938</v>
+        <v>0.1277523660671318</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1452845808685127</v>
+        <v>0.1454579996308863</v>
       </c>
     </row>
     <row r="25">
@@ -4206,19 +4206,19 @@
         <v>200726</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>176138</v>
+        <v>175217</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>232080</v>
+        <v>228831</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05885368914586754</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05164458117905764</v>
+        <v>0.05137439113292502</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06804689246039941</v>
+        <v>0.06709418406211685</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>290</v>
@@ -4227,19 +4227,19 @@
         <v>313463</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>278771</v>
+        <v>280730</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>350363</v>
+        <v>349731</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08824744352909139</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07848089187153034</v>
+        <v>0.07903224626495688</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09863566142418842</v>
+        <v>0.09845785751053295</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>478</v>
@@ -4248,19 +4248,19 @@
         <v>514189</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>469538</v>
+        <v>466096</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>556452</v>
+        <v>559082</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07384924983855397</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06743646093910929</v>
+        <v>0.06694209245600237</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07991917626065974</v>
+        <v>0.08029693479841499</v>
       </c>
     </row>
     <row r="26">
@@ -4277,19 +4277,19 @@
         <v>78661</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>61188</v>
+        <v>61723</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>99770</v>
+        <v>102877</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0230637110536662</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01794072500254862</v>
+        <v>0.01809731693756591</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02925289557815727</v>
+        <v>0.03016412371548283</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>162</v>
@@ -4298,19 +4298,19 @@
         <v>174710</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>148645</v>
+        <v>151327</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>200699</v>
+        <v>201646</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04918522382146335</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04184724186345284</v>
+        <v>0.04260234550830588</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05650169319248953</v>
+        <v>0.05676835249166249</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>230</v>
@@ -4319,19 +4319,19 @@
         <v>253371</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>220447</v>
+        <v>222044</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>287995</v>
+        <v>285699</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03638990018171606</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03166119354025138</v>
+        <v>0.03189064027446255</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0413626943695934</v>
+        <v>0.04103286649557672</v>
       </c>
     </row>
     <row r="27">
@@ -4662,19 +4662,19 @@
         <v>304684</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>277888</v>
+        <v>279344</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>331267</v>
+        <v>333139</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4039042386508834</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3683825404320913</v>
+        <v>0.3703122814029875</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4391444103943187</v>
+        <v>0.4416254125747635</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>306</v>
@@ -4683,19 +4683,19 @@
         <v>339666</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>307824</v>
+        <v>307939</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>370236</v>
+        <v>373078</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3423080462359025</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3102177538153093</v>
+        <v>0.3103336862019093</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3731151204920872</v>
+        <v>0.3759798959659698</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>613</v>
@@ -4704,19 +4704,19 @@
         <v>644350</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>606645</v>
+        <v>604619</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>685757</v>
+        <v>684742</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3689106416783149</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3473230866108881</v>
+        <v>0.3461634519810341</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3926173833135798</v>
+        <v>0.3920363727604256</v>
       </c>
     </row>
     <row r="5">
@@ -4733,19 +4733,19 @@
         <v>243178</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>217057</v>
+        <v>218821</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>267920</v>
+        <v>270039</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3223686536367367</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2877416445740403</v>
+        <v>0.2900796888179983</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3551680458145371</v>
+        <v>0.3579768221785907</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>274</v>
@@ -4754,19 +4754,19 @@
         <v>302419</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>273004</v>
+        <v>271796</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>333057</v>
+        <v>334108</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.30477062316897</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.275126653827386</v>
+        <v>0.2739095869479658</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3356468279040603</v>
+        <v>0.3367066561845936</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>519</v>
@@ -4775,19 +4775,19 @@
         <v>545597</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>504939</v>
+        <v>507153</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>583682</v>
+        <v>586956</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3123709839504163</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2890935534607184</v>
+        <v>0.2903607194833172</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3341762413355339</v>
+        <v>0.3360507450111151</v>
       </c>
     </row>
     <row r="6">
@@ -4804,19 +4804,19 @@
         <v>149946</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>128631</v>
+        <v>129138</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>175949</v>
+        <v>171271</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.19877654354957</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1705195703045362</v>
+        <v>0.1711923087157187</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2332461152970378</v>
+        <v>0.2270458464289505</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>187</v>
@@ -4825,19 +4825,19 @@
         <v>211173</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>185782</v>
+        <v>184302</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>239333</v>
+        <v>242337</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2128155918584799</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1872268964976783</v>
+        <v>0.1857349930139673</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2411946501176598</v>
+        <v>0.2442212372903483</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>337</v>
@@ -4846,19 +4846,19 @@
         <v>361120</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>325997</v>
+        <v>327759</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>397987</v>
+        <v>397893</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2067523092444789</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1866433428060286</v>
+        <v>0.1876520684553291</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2278601331849449</v>
+        <v>0.2278060174435214</v>
       </c>
     </row>
     <row r="7">
@@ -4875,19 +4875,19 @@
         <v>49863</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37306</v>
+        <v>37446</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64275</v>
+        <v>65594</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06610094722207922</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04945425931735446</v>
+        <v>0.04964013333853366</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08520549601064768</v>
+        <v>0.08695456805836985</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>90</v>
@@ -4896,19 +4896,19 @@
         <v>102411</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>82364</v>
+        <v>82967</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>121867</v>
+        <v>124655</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1032078328308013</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08300501646287231</v>
+        <v>0.08361238381535233</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1228148502301582</v>
+        <v>0.1256246188065407</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>143</v>
@@ -4917,19 +4917,19 @@
         <v>152274</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>130025</v>
+        <v>129394</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>178406</v>
+        <v>176867</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08718185091090869</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07444324775607991</v>
+        <v>0.07408229157117373</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1021428598841645</v>
+        <v>0.1012616333825905</v>
       </c>
     </row>
     <row r="8">
@@ -4946,19 +4946,19 @@
         <v>6676</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2792</v>
+        <v>2739</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13115</v>
+        <v>12930</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.008849616940730703</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.003701080058869151</v>
+        <v>0.003630315676945315</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01738578285979637</v>
+        <v>0.0171403019987915</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>33</v>
@@ -4967,19 +4967,19 @@
         <v>36613</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>26314</v>
+        <v>25819</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>50588</v>
+        <v>51279</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03689790590584632</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02651912397284571</v>
+        <v>0.02601956675012103</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05098154002941999</v>
+        <v>0.05167744423954427</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>40</v>
@@ -4988,19 +4988,19 @@
         <v>43289</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>31540</v>
+        <v>31634</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>58252</v>
+        <v>58405</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02478421421588112</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01805743745704955</v>
+        <v>0.01811137503706553</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03335130971464286</v>
+        <v>0.03343885904911501</v>
       </c>
     </row>
     <row r="9">
@@ -5092,19 +5092,19 @@
         <v>866173</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>822415</v>
+        <v>817885</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>915348</v>
+        <v>912487</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4180537258390071</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.396934466443373</v>
+        <v>0.394747781568025</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4417879312236547</v>
+        <v>0.4404070003297408</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>717</v>
@@ -5113,19 +5113,19 @@
         <v>736431</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>691831</v>
+        <v>690340</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>777237</v>
+        <v>782061</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3710387705154491</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3485680553884117</v>
+        <v>0.3478164718582264</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3915982943453054</v>
+        <v>0.3940289995474107</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1531</v>
@@ -5134,19 +5134,19 @@
         <v>1602603</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1531771</v>
+        <v>1544493</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1661477</v>
+        <v>1674470</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3950511780070645</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3775907065575207</v>
+        <v>0.380726518478229</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4095638619690602</v>
+        <v>0.4127667980050796</v>
       </c>
     </row>
     <row r="11">
@@ -5163,19 +5163,19 @@
         <v>726606</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>678205</v>
+        <v>684903</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>768902</v>
+        <v>773598</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3506927543403314</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3273320976754078</v>
+        <v>0.3305646677445337</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3711065623217656</v>
+        <v>0.3733732574570727</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>667</v>
@@ -5184,19 +5184,19 @@
         <v>699573</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>659090</v>
+        <v>658384</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>743454</v>
+        <v>745773</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3524687855820859</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3320718589765405</v>
+        <v>0.331716398165595</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3745772683189099</v>
+        <v>0.37574582571646</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1356</v>
@@ -5205,19 +5205,19 @@
         <v>1426180</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1364845</v>
+        <v>1359954</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1486101</v>
+        <v>1482137</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3515616957932868</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3364424600325833</v>
+        <v>0.3352367458683349</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3663327773938732</v>
+        <v>0.3653554322087538</v>
       </c>
     </row>
     <row r="12">
@@ -5234,19 +5234,19 @@
         <v>334183</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>301434</v>
+        <v>301391</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>370972</v>
+        <v>370553</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1612917350844638</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.145485402954338</v>
+        <v>0.145464797789525</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1790479235709526</v>
+        <v>0.1788456233281198</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>324</v>
@@ -5255,19 +5255,19 @@
         <v>342698</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>311690</v>
+        <v>305640</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>378743</v>
+        <v>374662</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1726630046056706</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1570400033218637</v>
+        <v>0.1539918118082718</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.190823652618535</v>
+        <v>0.1887675120590167</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>640</v>
@@ -5276,19 +5276,19 @@
         <v>676881</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>628663</v>
+        <v>631067</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>725591</v>
+        <v>728480</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1668552450202141</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1549691039466484</v>
+        <v>0.1555616977836306</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1788624781349469</v>
+        <v>0.1795746195514684</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>100403</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>80352</v>
+        <v>81224</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>121686</v>
+        <v>121404</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04845877291292636</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03878125297635837</v>
+        <v>0.0392022587406536</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05873126227318017</v>
+        <v>0.05859492837735198</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>132</v>
@@ -5326,19 +5326,19 @@
         <v>140271</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>118911</v>
+        <v>119162</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>167577</v>
+        <v>165482</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07067309198798259</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05991128348740557</v>
+        <v>0.06003788357015428</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08443103394451597</v>
+        <v>0.08337542319251988</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>221</v>
@@ -5347,19 +5347,19 @@
         <v>240673</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>209444</v>
+        <v>208860</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>269431</v>
+        <v>272110</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05932735576196661</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05162929834509251</v>
+        <v>0.05148513049896314</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06641639936905358</v>
+        <v>0.06707684231976201</v>
       </c>
     </row>
     <row r="14">
@@ -5376,19 +5376,19 @@
         <v>44552</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>33358</v>
+        <v>31928</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>58201</v>
+        <v>60891</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02150301182327135</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01610014700343062</v>
+        <v>0.01540981193116212</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02809032924252457</v>
+        <v>0.02938872164706818</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>65</v>
@@ -5397,19 +5397,19 @@
         <v>65808</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>51453</v>
+        <v>51862</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>83335</v>
+        <v>84476</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03315634730881174</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02592378070068827</v>
+        <v>0.02612980500480064</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04198723755429227</v>
+        <v>0.04256180419914393</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>105</v>
@@ -5418,19 +5418,19 @@
         <v>110361</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>91182</v>
+        <v>93133</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>134007</v>
+        <v>136445</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02720452541746806</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02247699423719042</v>
+        <v>0.02295784128824664</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03303360433818979</v>
+        <v>0.03363448973631623</v>
       </c>
     </row>
     <row r="15">
@@ -5522,19 +5522,19 @@
         <v>275030</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>253201</v>
+        <v>249328</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>301235</v>
+        <v>301098</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5036994687437419</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4637199937940677</v>
+        <v>0.4566267589370264</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5516921453400966</v>
+        <v>0.5514394596548514</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>257</v>
@@ -5543,19 +5543,19 @@
         <v>268246</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>244048</v>
+        <v>244044</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>290771</v>
+        <v>291317</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4893166316670959</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4451749163493051</v>
+        <v>0.4451681543782613</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5304038712149953</v>
+        <v>0.531400171925169</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>513</v>
@@ -5564,19 +5564,19 @@
         <v>543277</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>511322</v>
+        <v>511686</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>580210</v>
+        <v>579162</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4964936911875596</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4672902378056846</v>
+        <v>0.4676232503579741</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5302466657979624</v>
+        <v>0.5292886644356708</v>
       </c>
     </row>
     <row r="17">
@@ -5593,19 +5593,19 @@
         <v>163848</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>143129</v>
+        <v>140960</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>186287</v>
+        <v>185769</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3000765735370836</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.262131813298092</v>
+        <v>0.2581578796421367</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3411718946315412</v>
+        <v>0.3402233831489559</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>150</v>
@@ -5614,19 +5614,19 @@
         <v>153124</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>131535</v>
+        <v>133383</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>175173</v>
+        <v>174793</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2793183397411967</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2399364432840168</v>
+        <v>0.2433089795468586</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3195385784533363</v>
+        <v>0.3188455428086714</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>301</v>
@@ -5635,19 +5635,19 @@
         <v>316972</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>286839</v>
+        <v>288104</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>349138</v>
+        <v>346540</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2896767327827678</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.262138302969893</v>
+        <v>0.2632941204560934</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.319072410155641</v>
+        <v>0.3166987592438424</v>
       </c>
     </row>
     <row r="18">
@@ -5664,19 +5664,19 @@
         <v>80729</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>65209</v>
+        <v>62796</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>99772</v>
+        <v>101214</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1478496686232272</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1194261449336207</v>
+        <v>0.1150072085021877</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.182725264153268</v>
+        <v>0.1853662861683166</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>68</v>
@@ -5685,19 +5685,19 @@
         <v>71744</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>56706</v>
+        <v>56749</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>89817</v>
+        <v>88312</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1308698680237865</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1034400050596548</v>
+        <v>0.1035184627470094</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1638385390467509</v>
+        <v>0.1610933451925054</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>138</v>
@@ -5706,19 +5706,19 @@
         <v>152473</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>130695</v>
+        <v>131383</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>179260</v>
+        <v>177702</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1393428166429201</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1194408924478082</v>
+        <v>0.1200692073249164</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1638234655241862</v>
+        <v>0.1624000224082997</v>
       </c>
     </row>
     <row r="19">
@@ -5735,19 +5735,19 @@
         <v>18473</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10698</v>
+        <v>11497</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29524</v>
+        <v>29776</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03383277422960538</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01959187680735189</v>
+        <v>0.02105663575972573</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0540720736793074</v>
+        <v>0.05453264281619451</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>29</v>
@@ -5756,19 +5756,19 @@
         <v>31878</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21588</v>
+        <v>22427</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>44911</v>
+        <v>45449</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0581488204082795</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03937934111305868</v>
+        <v>0.04091005605711832</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08192300525198246</v>
+        <v>0.08290451116730167</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>46</v>
@@ -5777,19 +5777,19 @@
         <v>50351</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>37886</v>
+        <v>37342</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>68163</v>
+        <v>67013</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04601507309565376</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0346239034969294</v>
+        <v>0.03412636316310804</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06229366520687201</v>
+        <v>0.06124264255843161</v>
       </c>
     </row>
     <row r="20">
@@ -5806,19 +5806,19 @@
         <v>7940</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3144</v>
+        <v>2989</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18549</v>
+        <v>16392</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01454151486634193</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005757212002242809</v>
+        <v>0.005473267888500886</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03397072257658214</v>
+        <v>0.03002147544169969</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -5827,19 +5827,19 @@
         <v>23215</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14737</v>
+        <v>14976</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>34321</v>
+        <v>35211</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0423463401596413</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02688203270186523</v>
+        <v>0.02731807669605698</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06260581310589841</v>
+        <v>0.06422901845345103</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>27</v>
@@ -5848,19 +5848,19 @@
         <v>31154</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>20242</v>
+        <v>20413</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>45071</v>
+        <v>46787</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02847168629109878</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01849920803798461</v>
+        <v>0.01865518412548531</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04119023750665146</v>
+        <v>0.04275843030152397</v>
       </c>
     </row>
     <row r="21">
@@ -5952,19 +5952,19 @@
         <v>1445887</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1390240</v>
+        <v>1385906</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1505477</v>
+        <v>1499832</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4287558953026478</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4122545532224511</v>
+        <v>0.4109693018634178</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4464264188775271</v>
+        <v>0.4447523129164903</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1280</v>
@@ -5973,19 +5973,19 @@
         <v>1344343</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1284907</v>
+        <v>1283003</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1406884</v>
+        <v>1397346</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3813448214629769</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3644846226388454</v>
+        <v>0.3639447166724523</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3990855962780279</v>
+        <v>0.3963797336019126</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2657</v>
@@ -5994,19 +5994,19 @@
         <v>2790231</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2716518</v>
+        <v>2708936</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2872060</v>
+        <v>2878080</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.404524578406534</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3938378522672261</v>
+        <v>0.3927386204671652</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4163881779554488</v>
+        <v>0.4172608420873496</v>
       </c>
     </row>
     <row r="23">
@@ -6023,19 +6023,19 @@
         <v>1133632</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1078357</v>
+        <v>1076139</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1190204</v>
+        <v>1185285</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3361614497459969</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3197704859408359</v>
+        <v>0.3191127792320824</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3529369670448266</v>
+        <v>0.3514782586857138</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1091</v>
@@ -6044,19 +6044,19 @@
         <v>1155116</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1096943</v>
+        <v>1100086</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1214736</v>
+        <v>1211221</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.327667396654453</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3111657763562867</v>
+        <v>0.3120571474268477</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3445796795572721</v>
+        <v>0.3435825621899717</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2176</v>
@@ -6065,19 +6065,19 @@
         <v>2288748</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2210733</v>
+        <v>2211949</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2372075</v>
+        <v>2372963</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3318202257338676</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3205096084355995</v>
+        <v>0.3206859780145898</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3439007759104076</v>
+        <v>0.3440296300741127</v>
       </c>
     </row>
     <row r="24">
@@ -6094,19 +6094,19 @@
         <v>564859</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>523439</v>
+        <v>520926</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>611285</v>
+        <v>610598</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1675002536525214</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1552179920381284</v>
+        <v>0.154472798061475</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1812674139029741</v>
+        <v>0.1810636699935145</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>579</v>
@@ -6115,19 +6115,19 @@
         <v>625615</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>579929</v>
+        <v>581429</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>672321</v>
+        <v>676498</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1774658964266801</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1645061926654893</v>
+        <v>0.1649317398526944</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1907148157320284</v>
+        <v>0.1918995901795349</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1115</v>
@@ -6136,19 +6136,19 @@
         <v>1190474</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1120028</v>
+        <v>1128783</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1255156</v>
+        <v>1260655</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1725935921613836</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1623804082119996</v>
+        <v>0.1636497026371273</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1819711241829345</v>
+        <v>0.1827684340879477</v>
       </c>
     </row>
     <row r="25">
@@ -6165,19 +6165,19 @@
         <v>168739</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>144239</v>
+        <v>143908</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>195609</v>
+        <v>194792</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05003699474008297</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04277185926294593</v>
+        <v>0.04267364737273711</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.058005007728463</v>
+        <v>0.05776250436706255</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>251</v>
@@ -6186,19 +6186,19 @@
         <v>274560</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>244286</v>
+        <v>241800</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>309556</v>
+        <v>308890</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07788326182012496</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06929568774699779</v>
+        <v>0.06859057781388084</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08781046563748715</v>
+        <v>0.08762153698624744</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>410</v>
@@ -6207,19 +6207,19 @@
         <v>443299</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>403225</v>
+        <v>404066</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>487788</v>
+        <v>488293</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06426893819430872</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05845907959406706</v>
+        <v>0.05858098557693001</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07071893726002776</v>
+        <v>0.07079224884730026</v>
       </c>
     </row>
     <row r="26">
@@ -6236,19 +6236,19 @@
         <v>59168</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>44604</v>
+        <v>44784</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>77527</v>
+        <v>77424</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01754540655875093</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01322676183780378</v>
+        <v>0.01328009389476485</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02298955964435217</v>
+        <v>0.02295902244996543</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>119</v>
@@ -6257,19 +6257,19 @@
         <v>125636</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>103796</v>
+        <v>104194</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>148817</v>
+        <v>148328</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03563862363576504</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02944351392355718</v>
+        <v>0.02955627108906761</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04221433930985075</v>
+        <v>0.04207563392871853</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>172</v>
@@ -6278,19 +6278,19 @@
         <v>184804</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>162102</v>
+        <v>157360</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>216469</v>
+        <v>213609</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02679266550390604</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02350139730789649</v>
+        <v>0.02281394754545688</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03138339550834408</v>
+        <v>0.03096879443748997</v>
       </c>
     </row>
     <row r="27">
@@ -6621,19 +6621,19 @@
         <v>271499</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>249837</v>
+        <v>249607</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>295328</v>
+        <v>297362</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4699516734103042</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4324565953203731</v>
+        <v>0.4320581578748565</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5111985768125678</v>
+        <v>0.514720897193975</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>592</v>
@@ -6642,19 +6642,19 @@
         <v>344572</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>324529</v>
+        <v>322782</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>366708</v>
+        <v>367094</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4217730257571751</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.397238681636003</v>
+        <v>0.395100524973912</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4488681053752454</v>
+        <v>0.4493412508775487</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>911</v>
@@ -6663,19 +6663,19 @@
         <v>616070</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>584201</v>
+        <v>582515</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>648080</v>
+        <v>649584</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4417300275102007</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4188793724111683</v>
+        <v>0.4176707878824264</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4646814197651059</v>
+        <v>0.4657599167677857</v>
       </c>
     </row>
     <row r="5">
@@ -6692,19 +6692,19 @@
         <v>151360</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>133138</v>
+        <v>131329</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>172460</v>
+        <v>172033</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2619974252821409</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2304562322816787</v>
+        <v>0.2273247263064493</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.298521102213777</v>
+        <v>0.29778134694597</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>405</v>
@@ -6713,19 +6713,19 @@
         <v>230598</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>210572</v>
+        <v>210976</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>251529</v>
+        <v>250646</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2822626985469321</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2577506910354033</v>
+        <v>0.2582447009396439</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3078832975241106</v>
+        <v>0.3068030398704318</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>589</v>
@@ -6734,19 +6734,19 @@
         <v>381957</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>356227</v>
+        <v>354721</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>412382</v>
+        <v>410249</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2738682310022476</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.255419512403233</v>
+        <v>0.2543395622262227</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2956833008095471</v>
+        <v>0.2941534147419562</v>
       </c>
     </row>
     <row r="6">
@@ -6763,19 +6763,19 @@
         <v>91579</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>74806</v>
+        <v>73261</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>110667</v>
+        <v>111039</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1585186808738576</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1294859830181297</v>
+        <v>0.126811673769271</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1915589632582793</v>
+        <v>0.1922035621644662</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>243</v>
@@ -6784,19 +6784,19 @@
         <v>137735</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>121825</v>
+        <v>123176</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>154083</v>
+        <v>154332</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1685937719999261</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1491192969055347</v>
+        <v>0.1507731571392187</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1886047574006148</v>
+        <v>0.1889101131810764</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>352</v>
@@ -6805,19 +6805,19 @@
         <v>229313</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>205431</v>
+        <v>207581</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>254744</v>
+        <v>253715</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.1644203752555328</v>
+        <v>0.1644203752555327</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.147296701685409</v>
+        <v>0.148838212196899</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.182654564084173</v>
+        <v>0.1819169841937411</v>
       </c>
     </row>
     <row r="7">
@@ -6834,19 +6834,19 @@
         <v>40201</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29654</v>
+        <v>30114</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54100</v>
+        <v>53695</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06958553779138123</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05132981005563073</v>
+        <v>0.05212651484676752</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09364408741250443</v>
+        <v>0.0929428453666801</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>127</v>
@@ -6855,19 +6855,19 @@
         <v>72586</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>60341</v>
+        <v>60266</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>84961</v>
+        <v>85675</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08884864380607949</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07386033532424327</v>
+        <v>0.07376804390814695</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1039964038723287</v>
+        <v>0.1048698285466146</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>177</v>
@@ -6876,19 +6876,19 @@
         <v>112786</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>96746</v>
+        <v>97953</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>131097</v>
+        <v>131917</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08086930318050088</v>
+        <v>0.08086930318050087</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06936800302238509</v>
+        <v>0.07023358444595267</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09399784849088891</v>
+        <v>0.09458603465384614</v>
       </c>
     </row>
     <row r="8">
@@ -6905,19 +6905,19 @@
         <v>23078</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>15488</v>
+        <v>15518</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>33095</v>
+        <v>33180</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0399466826423162</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0268085556135548</v>
+        <v>0.02686085343198756</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05728520092993435</v>
+        <v>0.05743331118466366</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>53</v>
@@ -6926,19 +6926,19 @@
         <v>31471</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>23017</v>
+        <v>23833</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>40359</v>
+        <v>41495</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03852185988988722</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02817386207938911</v>
+        <v>0.02917216803676985</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04940142392618569</v>
+        <v>0.05079213632553355</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>81</v>
@@ -6947,19 +6947,19 @@
         <v>54549</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>43051</v>
+        <v>43505</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>67748</v>
+        <v>68460</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.03911206305151808</v>
+        <v>0.03911206305151807</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03086845153480774</v>
+        <v>0.0311938258019417</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04857647083258465</v>
+        <v>0.04908690910212082</v>
       </c>
     </row>
     <row r="9">
@@ -7051,19 +7051,19 @@
         <v>1292475</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1240639</v>
+        <v>1239274</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1343188</v>
+        <v>1343905</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5810788738043433</v>
+        <v>0.5810788738043432</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5577741967038451</v>
+        <v>0.5571606864933519</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6038788694021763</v>
+        <v>0.6042012690675783</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1458</v>
@@ -7072,19 +7072,19 @@
         <v>1156677</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1110830</v>
+        <v>1109950</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1199809</v>
+        <v>1198785</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.53364206891044</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.512490460043422</v>
+        <v>0.5120841367460071</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5535417461922274</v>
+        <v>0.5530692631301707</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2549</v>
@@ -7093,19 +7093,19 @@
         <v>2449151</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2379463</v>
+        <v>2376578</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2519340</v>
+        <v>2514872</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5576669729911323</v>
+        <v>0.5576669729911322</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5417989877601611</v>
+        <v>0.5411422111924281</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5736488510601505</v>
+        <v>0.5726315330923007</v>
       </c>
     </row>
     <row r="11">
@@ -7122,19 +7122,19 @@
         <v>581766</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>540906</v>
+        <v>535154</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>630656</v>
+        <v>627719</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.261553877560513</v>
+        <v>0.2615538775605129</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.243183950174762</v>
+        <v>0.2405978658431294</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2835343226513752</v>
+        <v>0.2822137621085712</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>919</v>
@@ -7143,19 +7143,19 @@
         <v>616896</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>582062</v>
+        <v>577959</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>653390</v>
+        <v>654908</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2846100146053543</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2685390555297209</v>
+        <v>0.2666461176712432</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3014466366640381</v>
+        <v>0.3021472467608937</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1482</v>
@@ -7164,19 +7164,19 @@
         <v>1198662</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1141422</v>
+        <v>1144321</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1262911</v>
+        <v>1258461</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.2729329743364639</v>
+        <v>0.2729329743364637</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2598995695243053</v>
+        <v>0.2605596868011618</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2875622726824028</v>
+        <v>0.2865491531253916</v>
       </c>
     </row>
     <row r="12">
@@ -7193,19 +7193,19 @@
         <v>232754</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>203272</v>
+        <v>201679</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>268173</v>
+        <v>267336</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1046431389154563</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09138814402017702</v>
+        <v>0.0906723077924978</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1205668667764478</v>
+        <v>0.1201907734542004</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>304</v>
@@ -7214,19 +7214,19 @@
         <v>221247</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>195599</v>
+        <v>197341</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>247728</v>
+        <v>248347</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1020741754588908</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09024134773829742</v>
+        <v>0.09104492957105148</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1142914764315422</v>
+        <v>0.1145768193498268</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>518</v>
@@ -7235,19 +7235,19 @@
         <v>454001</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>413852</v>
+        <v>406782</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>496438</v>
+        <v>493762</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1033752559336157</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0942332701901635</v>
+        <v>0.09262338867789664</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1130379196999101</v>
+        <v>0.1124285922303042</v>
       </c>
     </row>
     <row r="13">
@@ -7264,19 +7264,19 @@
         <v>78848</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>62971</v>
+        <v>63473</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>98055</v>
+        <v>101541</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03544900728372216</v>
+        <v>0.03544900728372215</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02831071358666077</v>
+        <v>0.02853640243983676</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0440842204021385</v>
+        <v>0.04565141185450325</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>165</v>
@@ -7285,19 +7285,19 @@
         <v>119660</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>103055</v>
+        <v>102779</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>142437</v>
+        <v>141826</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05520626185913327</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04754520686969443</v>
+        <v>0.04741775732940846</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06571428177377418</v>
+        <v>0.06543255872704201</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>244</v>
@@ -7306,19 +7306,19 @@
         <v>198508</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>173613</v>
+        <v>175280</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>226147</v>
+        <v>226424</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0451999777695175</v>
+        <v>0.04519997776951749</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03953144796880629</v>
+        <v>0.03991084519120527</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0514932069636391</v>
+        <v>0.05155623399578188</v>
       </c>
     </row>
     <row r="14">
@@ -7335,19 +7335,19 @@
         <v>38424</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>27617</v>
+        <v>28345</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>51767</v>
+        <v>51153</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01727510243596541</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01241638065227095</v>
+        <v>0.01274366873600595</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02327361391641582</v>
+        <v>0.02299760065244634</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>69</v>
@@ -7356,19 +7356,19 @@
         <v>53034</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>39591</v>
+        <v>40447</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>66222</v>
+        <v>67758</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0244674791661816</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01826544482044893</v>
+        <v>0.01866068180356502</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03055210276098659</v>
+        <v>0.03126074401642103</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>110</v>
@@ -7377,19 +7377,19 @@
         <v>91458</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>74588</v>
+        <v>74806</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>113674</v>
+        <v>111847</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02082481896927074</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01698355203713212</v>
+        <v>0.01703316402491579</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02588345272867251</v>
+        <v>0.02546725099021458</v>
       </c>
     </row>
     <row r="15">
@@ -7481,19 +7481,19 @@
         <v>439696</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>406350</v>
+        <v>410109</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>465800</v>
+        <v>466460</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.6214764375773233</v>
+        <v>0.6214764375773231</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5743447267971046</v>
+        <v>0.5796581549774952</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6583729436371177</v>
+        <v>0.6593059985960216</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>576</v>
@@ -7502,19 +7502,19 @@
         <v>440824</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>416061</v>
+        <v>418363</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>464170</v>
+        <v>464935</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6010633576272223</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5672990992401494</v>
+        <v>0.5704382441844594</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6328960860293636</v>
+        <v>0.6339383786575578</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>986</v>
@@ -7523,19 +7523,19 @@
         <v>880520</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>847828</v>
+        <v>845675</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>917907</v>
+        <v>914350</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.6110864021468226</v>
+        <v>0.6110864021468225</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.588398244327718</v>
+        <v>0.5869041329060626</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6370335076603946</v>
+        <v>0.6345650227749592</v>
       </c>
     </row>
     <row r="17">
@@ -7552,19 +7552,19 @@
         <v>173719</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>150690</v>
+        <v>152022</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>202200</v>
+        <v>199409</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2455390866701582</v>
+        <v>0.2455390866701581</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2129894080363705</v>
+        <v>0.2148713031812435</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2857946722549284</v>
+        <v>0.2818494811387298</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>285</v>
@@ -7573,19 +7573,19 @@
         <v>191876</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>169668</v>
+        <v>170074</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>213600</v>
+        <v>213947</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.261623146277136</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2313427656093458</v>
+        <v>0.231895298042148</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2912440648811292</v>
+        <v>0.2917167217180366</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>464</v>
@@ -7594,19 +7594,19 @@
         <v>365596</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>329736</v>
+        <v>335022</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>396769</v>
+        <v>398907</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2537256978817582</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2288388478273442</v>
+        <v>0.2325075281636884</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.275360073225727</v>
+        <v>0.276843818032308</v>
       </c>
     </row>
     <row r="18">
@@ -7623,19 +7623,19 @@
         <v>54207</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>40912</v>
+        <v>40551</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>69905</v>
+        <v>72533</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.07661709605580501</v>
+        <v>0.07661709605580498</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05782666784707385</v>
+        <v>0.05731631322738146</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09880518918960997</v>
+        <v>0.1025202080937589</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>66</v>
@@ -7644,19 +7644,19 @@
         <v>49725</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>38581</v>
+        <v>39293</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>63523</v>
+        <v>64723</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06780067482215348</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05260477790577332</v>
+        <v>0.0535762157412008</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08661369019975329</v>
+        <v>0.08824938925225234</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>118</v>
@@ -7665,19 +7665,19 @@
         <v>103932</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>86178</v>
+        <v>87582</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>127736</v>
+        <v>128103</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.07212963364387216</v>
+        <v>0.07212963364387215</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05980826203888753</v>
+        <v>0.06078245276694056</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08864935777288209</v>
+        <v>0.08890428304874042</v>
       </c>
     </row>
     <row r="19">
@@ -7694,19 +7694,19 @@
         <v>26518</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17723</v>
+        <v>16820</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>39971</v>
+        <v>39044</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03748174332600542</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02505054166025765</v>
+        <v>0.02377346353112803</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05649643372963743</v>
+        <v>0.0551860179210534</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>51</v>
@@ -7715,19 +7715,19 @@
         <v>35739</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>26869</v>
+        <v>26963</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>46621</v>
+        <v>47408</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04872952997940955</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03663534056340868</v>
+        <v>0.03676420681831634</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06356772765933381</v>
+        <v>0.0646404824059581</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>76</v>
@@ -7736,19 +7736,19 @@
         <v>62257</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>49144</v>
+        <v>48949</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>78127</v>
+        <v>78110</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04320674426311309</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03410613897140976</v>
+        <v>0.03397100114581081</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05422073679546785</v>
+        <v>0.05420855404666656</v>
       </c>
     </row>
     <row r="20">
@@ -7765,19 +7765,19 @@
         <v>13362</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6936</v>
+        <v>7528</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22839</v>
+        <v>24421</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.01888563637070823</v>
+        <v>0.01888563637070822</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.009803845668604351</v>
+        <v>0.01064056222715203</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0322804778140427</v>
+        <v>0.03451762082174472</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>24</v>
@@ -7786,19 +7786,19 @@
         <v>15243</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9775</v>
+        <v>10275</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>22896</v>
+        <v>22701</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02078329129407858</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01332780688426513</v>
+        <v>0.01400972083430623</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03121871178169669</v>
+        <v>0.03095254147184987</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>36</v>
@@ -7807,19 +7807,19 @@
         <v>28604</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>19741</v>
+        <v>19613</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>40015</v>
+        <v>39828</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01985152206443396</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01370058936445578</v>
+        <v>0.01361138904161536</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02777099601944866</v>
+        <v>0.02764100741231615</v>
       </c>
     </row>
     <row r="21">
@@ -7911,19 +7911,19 @@
         <v>2003668</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1933618</v>
+        <v>1936763</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2060198</v>
+        <v>2066011</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.5709296463848825</v>
+        <v>0.5709296463848826</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5509693964590848</v>
+        <v>0.5518655520440389</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5870374377236758</v>
+        <v>0.5886937354973608</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2626</v>
@@ -7932,19 +7932,19 @@
         <v>1942072</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1887289</v>
+        <v>1888154</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1996507</v>
+        <v>1995127</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.522360010984497</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5076249390136924</v>
+        <v>0.5078575789907929</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5370014272293733</v>
+        <v>0.5366302479323015</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4446</v>
@@ -7953,19 +7953,19 @@
         <v>3945741</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3860918</v>
+        <v>3852741</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4031567</v>
+        <v>4024340</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.5459445892996926</v>
+        <v>0.5459445892996925</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5342082038857855</v>
+        <v>0.533076824081837</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5578196413808877</v>
+        <v>0.5568197028709158</v>
       </c>
     </row>
     <row r="23">
@@ -7982,19 +7982,19 @@
         <v>906845</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>854087</v>
+        <v>849459</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>968852</v>
+        <v>965776</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2583983562608081</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2433653137129284</v>
+        <v>0.2420465985446868</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2760668439857104</v>
+        <v>0.2751903447896309</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1609</v>
@@ -8003,19 +8003,19 @@
         <v>1039370</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>991139</v>
+        <v>990823</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1086162</v>
+        <v>1086317</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2795597204290675</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2665870797759659</v>
+        <v>0.2665019412005309</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2921455314306121</v>
+        <v>0.2921872543153374</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2535</v>
@@ -8024,19 +8024,19 @@
         <v>1946215</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1876573</v>
+        <v>1874433</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2018478</v>
+        <v>2020077</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2692841265035935</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2596482957659687</v>
+        <v>0.2593520963242897</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2792827070257051</v>
+        <v>0.279503917428173</v>
       </c>
     </row>
     <row r="24">
@@ -8053,19 +8053,19 @@
         <v>378540</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>337298</v>
+        <v>339487</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>416248</v>
+        <v>421740</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1078619185821289</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09611043103994608</v>
+        <v>0.09673403029758762</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1186065888343774</v>
+        <v>0.1201714856277041</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>613</v>
@@ -8074,19 +8074,19 @@
         <v>408707</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>375921</v>
+        <v>378456</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>442013</v>
+        <v>444080</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.109930118065862</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1011117353189101</v>
+        <v>0.1017935986736309</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1188885325992032</v>
+        <v>0.1194442739903503</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>988</v>
@@ -8095,19 +8095,19 @@
         <v>787247</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>740429</v>
+        <v>735287</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>842664</v>
+        <v>838159</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1089258360222878</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1024480009803774</v>
+        <v>0.1017365353748428</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1165935563735185</v>
+        <v>0.1159701683917641</v>
       </c>
     </row>
     <row r="25">
@@ -8124,19 +8124,19 @@
         <v>145567</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>123338</v>
+        <v>122947</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>170749</v>
+        <v>168573</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.0414782035111019</v>
+        <v>0.04147820351110191</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0351442525178683</v>
+        <v>0.03503279893614981</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04865372646007299</v>
+        <v>0.0480334665263728</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>343</v>
@@ -8145,19 +8145,19 @@
         <v>227985</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>203750</v>
+        <v>204658</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>254508</v>
+        <v>255652</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06132114743710688</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05480264025785011</v>
+        <v>0.05504695871297298</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0684552281790293</v>
+        <v>0.06876278627683073</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>497</v>
@@ -8166,19 +8166,19 @@
         <v>373552</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>339514</v>
+        <v>339793</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>408459</v>
+        <v>408333</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.05168575567085159</v>
+        <v>0.05168575567085158</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04697613078861253</v>
+        <v>0.04701471684768083</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05651562171184027</v>
+        <v>0.05649821600620375</v>
       </c>
     </row>
     <row r="26">
@@ -8195,19 +8195,19 @@
         <v>74864</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>60073</v>
+        <v>60132</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>94015</v>
+        <v>93962</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0213318752610785</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01711732618757543</v>
+        <v>0.01713426009343663</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02678882999513305</v>
+        <v>0.0267737905600819</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>146</v>
@@ -8216,19 +8216,19 @@
         <v>99747</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>83335</v>
+        <v>85092</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>119163</v>
+        <v>118185</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.02682900308346655</v>
+        <v>0.02682900308346654</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02241467044688893</v>
+        <v>0.0228871758390009</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03205125466814365</v>
+        <v>0.03178823789546131</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>227</v>
@@ -8237,19 +8237,19 @@
         <v>174611</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>153215</v>
+        <v>151080</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>198936</v>
+        <v>201967</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02415969250357445</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02119933514668563</v>
+        <v>0.02090383348931648</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02752537999418583</v>
+        <v>0.02794479563605364</v>
       </c>
     </row>
     <row r="27">
